--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tyhn4h5</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,21 +436,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Хлеб</t>
+          <t>Омлет с зеленью</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tyhn4h5</t>
+          <t>Овсяная каша с ягодами</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Супчик</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Омлет с зеленью</t>
+          <t>Хлеб</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Овсяная каша с ягодами</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Супчик</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Хлеб</t>
+          <t>Омлет с зеленью</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Паста с овощами</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
